--- a/analysis/mails_01/P04_4/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_4/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,13 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-09</t>
+    <t xml:space="preserve">09/10/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5632</t>
   </si>
   <si>
     <t xml:space="preserve">agriculture</t>
@@ -87,61 +93,196 @@
     <t xml:space="preserve">MFD03556</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 03:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5631</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03558</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 07:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6338</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03559</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 07:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7196</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03563</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 07:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.634</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03566</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 04:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7253</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03567</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 04:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7251</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03568</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 04:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7239</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03569</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 03:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4936</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03570</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 03:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4935</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03571</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 03:53</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03572</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 03:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.494</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03573</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 03:35</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03574</t>
   </si>
   <si>
+    <t xml:space="preserve">09/10/2020 03:40</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03575</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-09-30</t>
+    <t xml:space="preserve">30/09/2020 04:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4305</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03576</t>
   </si>
   <si>
+    <t xml:space="preserve">30/09/2020 04:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4319</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03577</t>
   </si>
   <si>
+    <t xml:space="preserve">30/09/2020 04:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4304</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03579</t>
   </si>
   <si>
+    <t xml:space="preserve">30/09/2020 04:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4293</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03580</t>
   </si>
   <si>
+    <t xml:space="preserve">30/09/2020 04:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4346</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/09/2020 04:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4326</t>
   </si>
   <si>
     <t xml:space="preserve">MFD04003</t>
@@ -632,35 +773,35 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
-        <v>56.4937</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.5632</v>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -668,719 +809,719 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
-        <v>56.4937</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.5632</v>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.4953</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.5631</v>
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.7209</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.6338</v>
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>56.7196</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.6338</v>
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="n">
-        <v>56.7206</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.634</v>
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>56.5423</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.7253</v>
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="n">
-        <v>56.5425</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.7251</v>
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.5444</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.7239</v>
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.4936</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.5632</v>
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56.4935</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.5632</v>
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56.4937</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.5632</v>
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56.494</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.5632</v>
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56.4953</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.5631</v>
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56.4953</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.5631</v>
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="n">
-        <v>57.4384</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10.4305</v>
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57.4377</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10.4319</v>
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="n">
-        <v>57.4384</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.4304</v>
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="n">
-        <v>57.437</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10.4293</v>
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="n">
-        <v>57.4358</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10.4346</v>
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="n">
-        <v>57.4359</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.4326</v>
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1389,26 +1530,26 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1417,26 +1558,26 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1445,26 +1586,26 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1473,26 +1614,26 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1501,26 +1642,26 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -1529,26 +1670,26 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -1557,26 +1698,26 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -1585,26 +1726,26 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -1613,26 +1754,26 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -1641,26 +1782,26 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -1669,21 +1810,21 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1843,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
@@ -1713,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -1729,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -1737,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -1745,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -1753,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1761,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1769,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1777,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -1785,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1793,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -1801,7 +1942,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
@@ -1809,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1958,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P04_4/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_4/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 00:00</t>
+    <t xml:space="preserve">2020-10-09</t>
   </si>
   <si>
     <t xml:space="preserve">56.4937</t>
@@ -93,9 +93,6 @@
     <t xml:space="preserve">MFD03556</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 03:42</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4953</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t xml:space="preserve">MFD03558</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 07:02</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7209</t>
   </si>
   <si>
@@ -117,18 +111,12 @@
     <t xml:space="preserve">MFD03559</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 07:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7196</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03563</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 07:06</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.7206</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t xml:space="preserve">MFD03566</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 04:32</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5423</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t xml:space="preserve">MFD03567</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 04:37</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5425</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t xml:space="preserve">MFD03568</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 04:44</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5444</t>
   </si>
   <si>
@@ -174,52 +153,34 @@
     <t xml:space="preserve">MFD03569</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 03:55</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4936</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03570</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 03:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.4935</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03571</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 03:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03572</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 03:59</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.494</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03573</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 03:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03574</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 03:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03575</t>
   </si>
   <si>
-    <t xml:space="preserve">30/09/2020 04:36</t>
+    <t xml:space="preserve">2020-09-30</t>
   </si>
   <si>
     <t xml:space="preserve">57.4384</t>
@@ -231,9 +192,6 @@
     <t xml:space="preserve">MFD03576</t>
   </si>
   <si>
-    <t xml:space="preserve">30/09/2020 04:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.4377</t>
   </si>
   <si>
@@ -243,18 +201,12 @@
     <t xml:space="preserve">MFD03577</t>
   </si>
   <si>
-    <t xml:space="preserve">30/09/2020 04:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.4304</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03579</t>
   </si>
   <si>
-    <t xml:space="preserve">30/09/2020 04:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.437</t>
   </si>
   <si>
@@ -264,9 +216,6 @@
     <t xml:space="preserve">MFD03580</t>
   </si>
   <si>
-    <t xml:space="preserve">30/09/2020 04:07</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.4358</t>
   </si>
   <si>
@@ -274,9 +223,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD03581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/09/2020 04:12</t>
   </si>
   <si>
     <t xml:space="preserve">57.4359</t>
@@ -843,13 +789,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -873,19 +819,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -909,19 +855,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -945,19 +891,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -981,19 +927,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -1017,19 +963,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1053,19 +999,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1089,16 +1035,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1125,16 +1071,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1161,13 +1107,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1197,16 +1143,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1233,19 +1179,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
         <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1269,19 +1215,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1305,19 +1251,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1341,19 +1287,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -1377,19 +1323,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -1413,19 +1359,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -1449,19 +1395,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -1485,19 +1431,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -1521,7 +1467,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1549,7 +1495,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1577,7 +1523,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1605,7 +1551,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1633,7 +1579,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1661,7 +1607,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -1689,7 +1635,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -1717,7 +1663,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -1745,7 +1691,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -1773,7 +1719,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -1801,7 +1747,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -1843,10 +1789,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -1854,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -1862,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -1870,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -1878,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -1886,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1894,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1902,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1910,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -1918,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -1926,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -1934,7 +1880,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -1942,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1950,7 +1896,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -1958,7 +1904,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P04_4/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_4/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -75,9 +75,6 @@
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
-    <t xml:space="preserve">AGRICULTURE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soil</t>
   </si>
   <si>
@@ -229,39 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.4326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD04128</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -728,26 +692,24 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -764,26 +726,24 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -792,34 +752,32 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -828,34 +786,32 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -864,34 +820,32 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -900,34 +854,32 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -936,34 +888,32 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -972,34 +922,32 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1008,34 +956,32 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1044,7 +990,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1052,26 +998,24 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1080,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1088,26 +1032,24 @@
       <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1124,26 +1066,24 @@
       <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1152,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1160,26 +1100,24 @@
       <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1188,34 +1126,32 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1224,553 +1160,231 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1789,10 +1403,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1800,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1808,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1816,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1824,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1832,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1840,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1848,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -1856,7 +1470,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1864,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -1872,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -1880,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -1888,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1896,7 +1510,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -1904,7 +1518,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
